--- a/adaboost_Molecular_Descriptor.xlsx
+++ b/adaboost_Molecular_Descriptor.xlsx
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
